--- a/SourceCode/vajrang/Nov 2022/Week4/purchase order/Data/Config.xlsx
+++ b/SourceCode/vajrang/Nov 2022/Week4/purchase order/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gorav\OneDrive\Documents\GitHub\RPA-Developer-in-30-Days\SourceCode\vajrang\Nov 2022\Week4\purchase order\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E697218-3F5E-400B-8DBE-BC2F7547E17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,6 @@
     <t>Framework</t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -122,6 +118,9 @@
   </si>
   <si>
     <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>PAQ</t>
   </si>
 </sst>
 </file>
@@ -174,10 +173,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -499,16 +498,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -547,17 +546,17 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="28.8">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -565,7 +564,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1574,12 +1573,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1616,7 +1615,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1648,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1670,7 +1669,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1681,7 +1680,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1692,7 +1691,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2682,16 +2681,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2702,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -3914,6 +3913,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3922,20 +3927,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F4F2D89-C679-413A-A35E-3BABB34B82E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F4F2D89-C679-413A-A35E-3BABB34B82E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="100b8fb2-c4a0-4da7-b52c-f67e170b2c14"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{274B2A02-7AFC-4271-93FA-F31892F2F499}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B59AD318-6BD4-420B-B36B-013387B6CE0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B59AD318-6BD4-420B-B36B-013387B6CE0D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{274B2A02-7AFC-4271-93FA-F31892F2F499}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>